--- a/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-jp-media-endoscopy.xlsx
+++ b/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-jp-media-endoscopy.xlsx
@@ -358,7 +358,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+    <t>「リソースコンテンツの言語」</t>
   </si>
   <si>
     <t>リソースが書かれている基本言語。</t>
@@ -370,7 +370,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>「人間の言語。」(Ningen no gengo.)</t>
+    <t>「人間の言語。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -416,7 +416,7 @@
 </t>
   </si>
   <si>
-    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+    <t>「含まれている、インラインのリソース」</t>
   </si>
   <si>
     <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
